--- a/FI/五海-GC.xlsx
+++ b/FI/五海-GC.xlsx
@@ -15,10 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0_ "/>
     <numFmt numFmtId="165" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd h:mm:ss"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -268,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -356,9 +355,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="166" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -448,6 +444,186 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="819150" cy="762000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>14</col>
+      <colOff>0</colOff>
+      <row>21</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="2219325" cy="1143000"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>10</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="676275" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>11</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="619125" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>12</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="781050" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>13</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="752475" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="6" name="Image 6" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>2</col>
+      <colOff>0</colOff>
+      <row>17</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="762000" cy="952500"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="7" name="Image 7" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -707,7 +883,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
@@ -814,7 +990,7 @@
       </c>
       <c r="P5" s="5" t="inlineStr">
         <is>
-          <t>订单日期：2024-06-25</t>
+          <t>订单日期：2024-06-30</t>
         </is>
       </c>
     </row>
@@ -826,7 +1002,7 @@
       </c>
       <c r="P6" s="5" t="inlineStr">
         <is>
-          <t>交货期：2024-08-24</t>
+          <t>交货期：2024-08-29</t>
         </is>
       </c>
     </row>
@@ -1002,18 +1178,18 @@
           <t>Saddle Suede</t>
         </is>
       </c>
-      <c r="N11" s="37" t="n">
-        <v>45511</v>
-      </c>
-      <c r="O11" s="38">
+      <c r="N11" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O11" s="37">
         <f>SUM(D11:K11)</f>
         <v/>
       </c>
-      <c r="P11" s="39">
+      <c r="P11" s="38">
         <f>O11*N11</f>
         <v/>
       </c>
-      <c r="Q11" s="39" t="n"/>
+      <c r="Q11" s="38" t="n"/>
     </row>
     <row r="12" ht="90" customHeight="1">
       <c r="A12" s="21" t="inlineStr">
@@ -1053,18 +1229,18 @@
           <t>Oat Heathered</t>
         </is>
       </c>
-      <c r="N12" s="37" t="n">
-        <v>45512</v>
-      </c>
-      <c r="O12" s="38">
+      <c r="N12" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O12" s="37">
         <f>SUM(D12:K12)</f>
         <v/>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="38">
         <f>O12*N12</f>
         <v/>
       </c>
-      <c r="Q12" s="39" t="n"/>
+      <c r="Q12" s="38" t="n"/>
     </row>
     <row r="13" ht="90" customHeight="1">
       <c r="A13" s="21" t="inlineStr">
@@ -1104,18 +1280,18 @@
           <t>Alaska</t>
         </is>
       </c>
-      <c r="N13" s="37" t="n">
-        <v>45513</v>
-      </c>
-      <c r="O13" s="38">
+      <c r="N13" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O13" s="37">
         <f>SUM(D13:K13)</f>
         <v/>
       </c>
-      <c r="P13" s="39">
+      <c r="P13" s="38">
         <f>O13*N13</f>
         <v/>
       </c>
-      <c r="Q13" s="39" t="n"/>
+      <c r="Q13" s="38" t="n"/>
     </row>
     <row r="14" ht="45" customHeight="1">
       <c r="A14" s="21" t="inlineStr">
@@ -1155,18 +1331,18 @@
           <t>Ecru</t>
         </is>
       </c>
-      <c r="N14" s="37" t="n">
-        <v>45514</v>
-      </c>
-      <c r="O14" s="38">
+      <c r="N14" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O14" s="37">
         <f>SUM(D14:K14)</f>
         <v/>
       </c>
-      <c r="P14" s="39">
+      <c r="P14" s="38">
         <f>O14*N14</f>
         <v/>
       </c>
-      <c r="Q14" s="39" t="n"/>
+      <c r="Q14" s="38" t="n"/>
     </row>
     <row r="15" ht="45" customHeight="1">
       <c r="A15" s="36" t="n"/>
@@ -1202,18 +1378,18 @@
           <t>Hot Red</t>
         </is>
       </c>
-      <c r="N15" s="37" t="n">
-        <v>45515</v>
-      </c>
-      <c r="O15" s="38">
+      <c r="N15" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O15" s="37">
         <f>SUM(D15:K15)</f>
         <v/>
       </c>
-      <c r="P15" s="39">
+      <c r="P15" s="38">
         <f>O15*N15</f>
         <v/>
       </c>
-      <c r="Q15" s="39" t="n"/>
+      <c r="Q15" s="38" t="n"/>
     </row>
     <row r="16" ht="90" customHeight="1">
       <c r="A16" s="21" t="inlineStr">
@@ -1253,18 +1429,18 @@
           <t>BlackHeringbone</t>
         </is>
       </c>
-      <c r="N16" s="37" t="n">
-        <v>45516</v>
-      </c>
-      <c r="O16" s="38">
+      <c r="N16" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O16" s="37">
         <f>SUM(D16:K16)</f>
         <v/>
       </c>
-      <c r="P16" s="39">
+      <c r="P16" s="38">
         <f>O16*N16</f>
         <v/>
       </c>
-      <c r="Q16" s="39" t="n"/>
+      <c r="Q16" s="38" t="n"/>
     </row>
     <row r="17" ht="90" customHeight="1">
       <c r="A17" s="21" t="inlineStr">
@@ -1304,18 +1480,18 @@
           <t>Alaska</t>
         </is>
       </c>
-      <c r="N17" s="37" t="n">
-        <v>45517</v>
-      </c>
-      <c r="O17" s="38">
+      <c r="N17" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O17" s="37">
         <f>SUM(D17:K17)</f>
         <v/>
       </c>
-      <c r="P17" s="39">
+      <c r="P17" s="38">
         <f>O17*N17</f>
         <v/>
       </c>
-      <c r="Q17" s="39" t="n"/>
+      <c r="Q17" s="38" t="n"/>
     </row>
     <row r="18" ht="90" customHeight="1">
       <c r="A18" s="21" t="inlineStr">
@@ -1355,18 +1531,18 @@
           <t>Rosè</t>
         </is>
       </c>
-      <c r="N18" s="37" t="n">
-        <v>45518</v>
-      </c>
-      <c r="O18" s="38">
+      <c r="N18" s="21" t="n">
+        <v>5</v>
+      </c>
+      <c r="O18" s="37">
         <f>SUM(D18:K18)</f>
         <v/>
       </c>
-      <c r="P18" s="39">
+      <c r="P18" s="38">
         <f>O18*N18</f>
         <v/>
       </c>
-      <c r="Q18" s="39" t="n"/>
+      <c r="Q18" s="38" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="n"/>
@@ -1383,15 +1559,15 @@
       <c r="L19" s="10" t="n"/>
       <c r="M19" s="10" t="n"/>
       <c r="N19" s="10" t="n"/>
-      <c r="O19" s="40">
+      <c r="O19" s="39">
         <f>SUM(O11:O18)</f>
         <v/>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="40">
         <f>SUM(P11:P18)</f>
         <v/>
       </c>
-      <c r="Q19" s="42" t="n"/>
+      <c r="Q19" s="41" t="n"/>
     </row>
     <row r="20"/>
     <row r="21"/>
@@ -1473,5 +1649,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" scale="67" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>